--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\environmets\niger-pilot\niger_master-data_preparation\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\environmets\niger-pilot\materdata-upload-ready\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
